--- a/xlstojson/leveltwo.xlsx
+++ b/xlstojson/leveltwo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6A2C2-EB47-4C01-A906-991E02ED96BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEDEC53-F823-4A28-9982-929608ED3A4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{9396C3A0-013B-4DFD-BA6B-0F4B833E1784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9396C3A0-013B-4DFD-BA6B-0F4B833E1784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B52B96-1A13-4CEB-A98C-4F6EA30057A2}">
   <dimension ref="A1:KX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="KO13" sqref="KO13"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="EV29" sqref="EV29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11698,10 +11698,10 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -11818,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="BL13">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -17536,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="DD19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DE19">
         <v>0</v>
@@ -25981,7 +25981,7 @@
         <v>0</v>
       </c>
       <c r="DY28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DZ28">
         <v>0</v>
@@ -26047,10 +26047,10 @@
         <v>0</v>
       </c>
       <c r="EU28">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="EV28">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="EW28">
         <v>0</v>
@@ -28425,15 +28425,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA2C2B1E0137B84E90AF32F7EF983C48" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b226c167ab89dd5488f6ff1644cbcec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1a220d8-fc2b-4424-85f0-b15be6bab5d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1917eebf7ce6e5a560d1e859d7cfc256" ns3:_="">
     <xsd:import namespace="a1a220d8-fc2b-4424-85f0-b15be6bab5d7"/>
@@ -28565,6 +28556,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -28572,14 +28572,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37AE520-6D6D-496B-86FA-F41C6E3D2D59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEB2BED-6894-42BD-90FF-E9D05C7192EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28593,6 +28585,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37AE520-6D6D-496B-86FA-F41C6E3D2D59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
